--- a/poverty-by-state.xlsx
+++ b/poverty-by-state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arundhingra/Desktop/Final-Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{367CBB37-A030-1F40-BAB2-91E422951916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303EED6D-3450-6A46-A70F-DEE6F2C2BFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pov21" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="57">
-  <si>
-    <t>Table with row headers in column A and column headers in rows 5, 58, 111, 164, 217, 270, 323, 376, 429, 482, 535, 588, 641, 694, 747, 800, 853, 906, 959, 1012, 1065, 1118, 1171, 1224, 1277, 1330, 1383, 1436, 1489, 1542, 1595, 1648, 1701, 1754, 1807, 1860, 1913, 1966, 2019, 2072, 2125, and 2178</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="56">
   <si>
     <t>Total</t>
   </si>
@@ -689,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E563"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,33 +697,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <f>(2016)</f>
@@ -744,7 +739,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <f>(2016)</f>
@@ -762,7 +757,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f>(2016)</f>
@@ -780,7 +775,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <f>(2016)</f>
@@ -798,7 +793,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>(2016)</f>
@@ -816,7 +811,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <f>(2016)</f>
@@ -834,7 +829,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <f>(2016)</f>
@@ -852,7 +847,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <f>(2016)</f>
@@ -870,7 +865,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <f>(2016)</f>
@@ -888,7 +883,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <f>(2016)</f>
@@ -906,7 +901,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <f>(2016)</f>
@@ -924,7 +919,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <f>(2016)</f>
@@ -942,7 +937,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <f>(2016)</f>
@@ -960,7 +955,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <f>(2016)</f>
@@ -978,7 +973,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <f>(2016)</f>
@@ -996,7 +991,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <f>(2016)</f>
@@ -1014,7 +1009,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <f>(2016)</f>
@@ -1032,7 +1027,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <f>(2016)</f>
@@ -1050,7 +1045,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <f>(2016)</f>
@@ -1068,7 +1063,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <f>(2016)</f>
@@ -1086,7 +1081,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <f>(2016)</f>
@@ -1104,7 +1099,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <f>(2016)</f>
@@ -1122,7 +1117,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <f>(2016)</f>
@@ -1140,7 +1135,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <f>(2016)</f>
@@ -1158,7 +1153,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <f>(2016)</f>
@@ -1176,7 +1171,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <f>(2016)</f>
@@ -1194,7 +1189,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <f>(2016)</f>
@@ -1212,7 +1207,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <f>(2016)</f>
@@ -1230,7 +1225,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <f>(2016)</f>
@@ -1248,7 +1243,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <f>(2016)</f>
@@ -1266,7 +1261,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <f>(2016)</f>
@@ -1284,7 +1279,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <f>(2016)</f>
@@ -1302,7 +1297,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <f>(2016)</f>
@@ -1320,7 +1315,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <f>(2016)</f>
@@ -1338,7 +1333,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <f>(2016)</f>
@@ -1356,7 +1351,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <f>(2016)</f>
@@ -1374,7 +1369,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <f>(2016)</f>
@@ -1392,7 +1387,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <f>(2016)</f>
@@ -1410,7 +1405,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <f>(2016)</f>
@@ -1428,7 +1423,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <f>(2016)</f>
@@ -1446,7 +1441,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <f>(2016)</f>
@@ -1464,7 +1459,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <f>(2016)</f>
@@ -1482,7 +1477,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <f>(2016)</f>
@@ -1500,7 +1495,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <f>(2016)</f>
@@ -1518,7 +1513,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <f>(2016)</f>
@@ -1536,7 +1531,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <f>(2016)</f>
@@ -1554,7 +1549,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <f>(2016)</f>
@@ -1572,7 +1567,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <f>(2016)</f>
@@ -1590,7 +1585,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <f>(2016)</f>
@@ -1608,7 +1603,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <f>(2016)</f>
@@ -1626,7 +1621,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <f>(2016)</f>
@@ -1644,7 +1639,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <f>(2012)</f>
@@ -1662,7 +1657,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <f>(2012)</f>
@@ -1680,7 +1675,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <f>(2012)</f>
@@ -1698,7 +1693,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <f>(2012)</f>
@@ -1716,7 +1711,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <f>(2012)</f>
@@ -1734,7 +1729,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <f>(2012)</f>
@@ -1752,7 +1747,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60">
         <f>(2012)</f>
@@ -1770,7 +1765,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <f>(2012)</f>
@@ -1788,7 +1783,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <f>(2012)</f>
@@ -1806,7 +1801,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
         <f>(2012)</f>
@@ -1824,7 +1819,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <f>(2012)</f>
@@ -1842,7 +1837,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65">
         <f>(2012)</f>
@@ -1860,7 +1855,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66">
         <f>(2012)</f>
@@ -1878,7 +1873,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67">
         <f>(2012)</f>
@@ -1896,7 +1891,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68">
         <f>(2012)</f>
@@ -1914,7 +1909,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69">
         <f>(2012)</f>
@@ -1932,7 +1927,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70">
         <f>(2012)</f>
@@ -1950,7 +1945,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71">
         <f>(2012)</f>
@@ -1968,7 +1963,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72">
         <f>(2012)</f>
@@ -1986,7 +1981,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73">
         <f>(2012)</f>
@@ -2004,7 +1999,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74">
         <f>(2012)</f>
@@ -2022,7 +2017,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75">
         <f>(2012)</f>
@@ -2040,7 +2035,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76">
         <f>(2012)</f>
@@ -2058,7 +2053,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77">
         <f>(2012)</f>
@@ -2076,7 +2071,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <f>(2012)</f>
@@ -2094,7 +2089,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79">
         <f>(2012)</f>
@@ -2112,7 +2107,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80">
         <f>(2012)</f>
@@ -2130,7 +2125,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81">
         <f>(2012)</f>
@@ -2148,7 +2143,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82">
         <f>(2012)</f>
@@ -2166,7 +2161,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B83">
         <f>(2012)</f>
@@ -2184,7 +2179,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B84">
         <f>(2012)</f>
@@ -2202,7 +2197,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85">
         <f>(2012)</f>
@@ -2220,7 +2215,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B86">
         <f>(2012)</f>
@@ -2238,7 +2233,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87">
         <f>(2012)</f>
@@ -2256,7 +2251,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88">
         <f>(2012)</f>
@@ -2274,7 +2269,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B89">
         <f>(2012)</f>
@@ -2292,7 +2287,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B90">
         <f>(2012)</f>
@@ -2310,7 +2305,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B91">
         <f>(2012)</f>
@@ -2328,7 +2323,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B92">
         <f>(2012)</f>
@@ -2346,7 +2341,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B93">
         <f>(2012)</f>
@@ -2364,7 +2359,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <f>(2012)</f>
@@ -2382,7 +2377,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B95">
         <f>(2012)</f>
@@ -2400,7 +2395,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B96">
         <f>(2012)</f>
@@ -2418,7 +2413,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97">
         <f>(2012)</f>
@@ -2436,7 +2431,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B98">
         <f>(2012)</f>
@@ -2454,7 +2449,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B99">
         <f>(2012)</f>
@@ -2472,7 +2467,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100">
         <f>(2012)</f>
@@ -2490,7 +2485,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B101">
         <f>(2012)</f>
@@ -2508,7 +2503,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B102">
         <f>(2012)</f>
@@ -2526,7 +2521,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B103">
         <f>(2012)</f>
@@ -2544,7 +2539,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B104">
         <f>(2012)</f>
@@ -2562,7 +2557,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105">
         <f>(2008)</f>
@@ -2580,7 +2575,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B106">
         <f>(2008)</f>
@@ -2598,7 +2593,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B107">
         <f>(2008)</f>
@@ -2616,7 +2611,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108">
         <f>(2008)</f>
@@ -2634,7 +2629,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B109">
         <f>(2008)</f>
@@ -2652,7 +2647,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B110">
         <f>(2008)</f>
@@ -2670,7 +2665,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111">
         <f>(2008)</f>
@@ -2688,7 +2683,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <f>(2008)</f>
@@ -2706,7 +2701,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B113">
         <f>(2008)</f>
@@ -2724,7 +2719,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B114">
         <f>(2008)</f>
@@ -2742,7 +2737,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <f>(2008)</f>
@@ -2760,7 +2755,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <f>(2008)</f>
@@ -2778,7 +2773,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B117">
         <f>(2008)</f>
@@ -2796,7 +2791,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B118">
         <f>(2008)</f>
@@ -2814,7 +2809,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B119">
         <f>(2008)</f>
@@ -2832,7 +2827,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B120">
         <f>(2008)</f>
@@ -2850,7 +2845,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B121">
         <f>(2008)</f>
@@ -2868,7 +2863,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B122">
         <f>(2008)</f>
@@ -2886,7 +2881,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B123">
         <f>(2008)</f>
@@ -2904,7 +2899,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124">
         <f>(2008)</f>
@@ -2922,7 +2917,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B125">
         <f>(2008)</f>
@@ -2940,7 +2935,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B126">
         <f>(2008)</f>
@@ -2958,7 +2953,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B127">
         <f>(2008)</f>
@@ -2976,7 +2971,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B128">
         <f>(2008)</f>
@@ -2994,7 +2989,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B129">
         <f>(2008)</f>
@@ -3012,7 +3007,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130">
         <f>(2008)</f>
@@ -3030,7 +3025,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B131">
         <f>(2008)</f>
@@ -3048,7 +3043,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B132">
         <f>(2008)</f>
@@ -3066,7 +3061,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B133">
         <f>(2008)</f>
@@ -3084,7 +3079,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B134">
         <f>(2008)</f>
@@ -3102,7 +3097,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B135">
         <f>(2008)</f>
@@ -3120,7 +3115,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B136">
         <f>(2008)</f>
@@ -3138,7 +3133,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B137">
         <f>(2008)</f>
@@ -3156,7 +3151,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B138">
         <f>(2008)</f>
@@ -3174,7 +3169,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B139">
         <f>(2008)</f>
@@ -3192,7 +3187,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B140">
         <f>(2008)</f>
@@ -3210,7 +3205,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B141">
         <f>(2008)</f>
@@ -3228,7 +3223,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B142">
         <f>(2008)</f>
@@ -3246,7 +3241,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B143">
         <f>(2008)</f>
@@ -3264,7 +3259,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B144">
         <f>(2008)</f>
@@ -3282,7 +3277,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B145">
         <f>(2008)</f>
@@ -3300,7 +3295,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B146">
         <f>(2008)</f>
@@ -3318,7 +3313,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B147">
         <f>(2008)</f>
@@ -3336,7 +3331,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B148">
         <f>(2008)</f>
@@ -3354,7 +3349,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B149">
         <f>(2008)</f>
@@ -3372,7 +3367,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B150">
         <f>(2008)</f>
@@ -3390,7 +3385,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B151">
         <f>(2008)</f>
@@ -3408,7 +3403,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B152">
         <f>(2008)</f>
@@ -3426,7 +3421,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B153">
         <f>(2008)</f>
@@ -3444,7 +3439,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B154">
         <f>(2008)</f>
@@ -3462,7 +3457,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B155">
         <f>(2008)</f>
@@ -3480,7 +3475,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156">
         <f>(2004)</f>
@@ -3498,7 +3493,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B157">
         <f>(2004)</f>
@@ -3516,7 +3511,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B158">
         <f>(2004)</f>
@@ -3534,7 +3529,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159">
         <f>(2004)</f>
@@ -3552,7 +3547,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <f>(2004)</f>
@@ -3570,7 +3565,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B161">
         <f>(2004)</f>
@@ -3588,7 +3583,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162">
         <f>(2004)</f>
@@ -3606,7 +3601,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B163">
         <f>(2004)</f>
@@ -3624,7 +3619,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B164">
         <f>(2004)</f>
@@ -3642,7 +3637,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B165">
         <f>(2004)</f>
@@ -3660,7 +3655,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B166">
         <f>(2004)</f>
@@ -3678,7 +3673,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B167">
         <f>(2004)</f>
@@ -3696,7 +3691,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B168">
         <f>(2004)</f>
@@ -3714,7 +3709,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B169">
         <f>(2004)</f>
@@ -3732,7 +3727,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B170">
         <f>(2004)</f>
@@ -3750,7 +3745,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B171">
         <f>(2004)</f>
@@ -3768,7 +3763,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B172">
         <f>(2004)</f>
@@ -3786,7 +3781,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B173">
         <f>(2004)</f>
@@ -3804,7 +3799,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B174">
         <f>(2004)</f>
@@ -3822,7 +3817,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B175">
         <f>(2004)</f>
@@ -3840,7 +3835,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B176">
         <f>(2004)</f>
@@ -3858,7 +3853,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B177">
         <f>(2004)</f>
@@ -3876,7 +3871,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B178">
         <f>(2004)</f>
@@ -3894,7 +3889,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B179">
         <f>(2004)</f>
@@ -3912,7 +3907,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B180">
         <f>(2004)</f>
@@ -3930,7 +3925,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B181">
         <f>(2004)</f>
@@ -3948,7 +3943,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B182">
         <f>(2004)</f>
@@ -3966,7 +3961,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B183">
         <f>(2004)</f>
@@ -3984,7 +3979,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B184">
         <f>(2004)</f>
@@ -4002,7 +3997,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B185">
         <f>(2004)</f>
@@ -4020,7 +4015,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B186">
         <f>(2004)</f>
@@ -4038,7 +4033,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B187">
         <f>(2004)</f>
@@ -4056,7 +4051,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B188">
         <f>(2004)</f>
@@ -4074,7 +4069,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B189">
         <f>(2004)</f>
@@ -4092,7 +4087,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B190">
         <f>(2004)</f>
@@ -4110,7 +4105,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B191">
         <f>(2004)</f>
@@ -4128,7 +4123,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B192">
         <f>(2004)</f>
@@ -4146,7 +4141,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B193">
         <f>(2004)</f>
@@ -4164,7 +4159,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B194">
         <f>(2004)</f>
@@ -4182,7 +4177,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B195">
         <f>(2004)</f>
@@ -4200,7 +4195,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B196">
         <f>(2004)</f>
@@ -4218,7 +4213,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B197">
         <f>(2004)</f>
@@ -4236,7 +4231,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B198">
         <f>(2004)</f>
@@ -4254,7 +4249,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B199">
         <f>(2004)</f>
@@ -4272,7 +4267,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B200">
         <f>(2004)</f>
@@ -4290,7 +4285,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B201">
         <f>(2004)</f>
@@ -4308,7 +4303,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B202">
         <f>(2004)</f>
@@ -4326,7 +4321,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B203">
         <f>(2004)</f>
@@ -4344,7 +4339,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B204">
         <f>(2004)</f>
@@ -4362,7 +4357,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B205">
         <f>(2004)</f>
@@ -4380,7 +4375,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B206">
         <f>(2004)</f>
@@ -4398,7 +4393,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B207">
         <f>(2000)</f>
@@ -4416,7 +4411,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B208">
         <f>(2000)</f>
@@ -4434,7 +4429,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B209">
         <f>(2000)</f>
@@ -4452,7 +4447,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B210">
         <f>(2000)</f>
@@ -4470,7 +4465,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B211">
         <f>(2000)</f>
@@ -4488,7 +4483,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B212">
         <f>(2000)</f>
@@ -4506,7 +4501,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B213">
         <f>(2000)</f>
@@ -4524,7 +4519,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B214">
         <f>(2000)</f>
@@ -4542,7 +4537,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B215">
         <f>(2000)</f>
@@ -4560,7 +4555,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B216">
         <f>(2000)</f>
@@ -4578,7 +4573,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B217">
         <f>(2000)</f>
@@ -4596,7 +4591,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B218">
         <f>(2000)</f>
@@ -4614,7 +4609,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B219">
         <f>(2000)</f>
@@ -4632,7 +4627,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B220">
         <f>(2000)</f>
@@ -4650,7 +4645,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B221">
         <f>(2000)</f>
@@ -4668,7 +4663,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B222">
         <f>(2000)</f>
@@ -4686,7 +4681,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B223">
         <f>(2000)</f>
@@ -4704,7 +4699,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B224">
         <f>(2000)</f>
@@ -4722,7 +4717,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B225">
         <f>(2000)</f>
@@ -4740,7 +4735,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B226">
         <f>(2000)</f>
@@ -4758,7 +4753,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B227">
         <f>(2000)</f>
@@ -4776,7 +4771,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B228">
         <f>(2000)</f>
@@ -4794,7 +4789,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B229">
         <f>(2000)</f>
@@ -4812,7 +4807,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B230">
         <f>(2000)</f>
@@ -4830,7 +4825,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B231">
         <f>(2000)</f>
@@ -4848,7 +4843,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B232">
         <f>(2000)</f>
@@ -4866,7 +4861,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B233">
         <f>(2000)</f>
@@ -4884,7 +4879,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B234">
         <f>(2000)</f>
@@ -4902,7 +4897,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B235">
         <f>(2000)</f>
@@ -4920,7 +4915,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B236">
         <f>(2000)</f>
@@ -4938,7 +4933,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B237">
         <f>(2000)</f>
@@ -4956,7 +4951,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B238">
         <f>(2000)</f>
@@ -4974,7 +4969,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B239">
         <f>(2000)</f>
@@ -4992,7 +4987,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B240">
         <f>(2000)</f>
@@ -5010,7 +5005,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B241">
         <f>(2000)</f>
@@ -5028,7 +5023,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B242">
         <f>(2000)</f>
@@ -5046,7 +5041,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B243">
         <f>(2000)</f>
@@ -5064,7 +5059,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B244">
         <f>(2000)</f>
@@ -5082,7 +5077,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B245">
         <f>(2000)</f>
@@ -5100,7 +5095,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B246">
         <f>(2000)</f>
@@ -5118,7 +5113,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B247">
         <f>(2000)</f>
@@ -5136,7 +5131,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B248">
         <f>(2000)</f>
@@ -5154,7 +5149,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B249">
         <f>(2000)</f>
@@ -5172,7 +5167,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B250">
         <f>(2000)</f>
@@ -5190,7 +5185,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B251">
         <f>(2000)</f>
@@ -5208,7 +5203,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B252">
         <f>(2000)</f>
@@ -5226,7 +5221,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B253">
         <f>(2000)</f>
@@ -5244,7 +5239,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B254">
         <f>(2000)</f>
@@ -5262,7 +5257,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B255">
         <f>(2000)</f>
@@ -5280,7 +5275,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B256">
         <f>(2000)</f>
@@ -5298,7 +5293,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B257">
         <f>(2000)</f>
@@ -5316,7 +5311,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B258">
         <f>(1996)</f>
@@ -5334,7 +5329,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B259">
         <f>(1996)</f>
@@ -5352,7 +5347,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B260">
         <f>(1996)</f>
@@ -5370,7 +5365,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B261">
         <f>(1996)</f>
@@ -5388,7 +5383,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B262">
         <f>(1996)</f>
@@ -5406,7 +5401,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B263">
         <f>(1996)</f>
@@ -5424,7 +5419,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B264">
         <f>(1996)</f>
@@ -5442,7 +5437,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B265">
         <f>(1996)</f>
@@ -5460,7 +5455,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B266">
         <f>(1996)</f>
@@ -5478,7 +5473,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B267">
         <f>(1996)</f>
@@ -5496,7 +5491,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B268">
         <f>(1996)</f>
@@ -5514,7 +5509,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B269">
         <f>(1996)</f>
@@ -5532,7 +5527,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B270">
         <f>(1996)</f>
@@ -5550,7 +5545,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B271">
         <f>(1996)</f>
@@ -5568,7 +5563,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B272">
         <f>(1996)</f>
@@ -5586,7 +5581,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B273">
         <f>(1996)</f>
@@ -5604,7 +5599,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B274">
         <f>(1996)</f>
@@ -5622,7 +5617,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B275">
         <f>(1996)</f>
@@ -5640,7 +5635,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B276">
         <f>(1996)</f>
@@ -5658,7 +5653,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B277">
         <f>(1996)</f>
@@ -5676,7 +5671,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B278">
         <f>(1996)</f>
@@ -5694,7 +5689,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B279">
         <f>(1996)</f>
@@ -5712,7 +5707,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B280">
         <f>(1996)</f>
@@ -5730,7 +5725,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B281">
         <f>(1996)</f>
@@ -5748,7 +5743,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B282">
         <f>(1996)</f>
@@ -5766,7 +5761,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B283">
         <f>(1996)</f>
@@ -5784,7 +5779,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B284">
         <f>(1996)</f>
@@ -5802,7 +5797,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B285">
         <f>(1996)</f>
@@ -5820,7 +5815,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B286">
         <f>(1996)</f>
@@ -5838,7 +5833,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B287">
         <f>(1996)</f>
@@ -5856,7 +5851,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B288">
         <f>(1996)</f>
@@ -5874,7 +5869,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B289">
         <f>(1996)</f>
@@ -5892,7 +5887,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B290">
         <f>(1996)</f>
@@ -5910,7 +5905,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B291">
         <f>(1996)</f>
@@ -5928,7 +5923,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B292">
         <f>(1996)</f>
@@ -5946,7 +5941,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B293">
         <f>(1996)</f>
@@ -5964,7 +5959,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B294">
         <f>(1996)</f>
@@ -5982,7 +5977,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B295">
         <f>(1996)</f>
@@ -6000,7 +5995,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B296">
         <f>(1996)</f>
@@ -6018,7 +6013,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B297">
         <f>(1996)</f>
@@ -6036,7 +6031,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B298">
         <f>(1996)</f>
@@ -6054,7 +6049,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B299">
         <f>(1996)</f>
@@ -6072,7 +6067,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B300">
         <f>(1996)</f>
@@ -6090,7 +6085,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B301">
         <f>(1996)</f>
@@ -6108,7 +6103,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B302">
         <f>(1996)</f>
@@ -6126,7 +6121,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B303">
         <f>(1996)</f>
@@ -6144,7 +6139,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B304">
         <f>(1996)</f>
@@ -6162,7 +6157,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B305">
         <f>(1996)</f>
@@ -6180,7 +6175,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B306">
         <f>(1996)</f>
@@ -6198,7 +6193,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B307">
         <f>(1996)</f>
@@ -6216,7 +6211,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B308">
         <f>(1996)</f>
@@ -6234,7 +6229,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B309">
         <f>(1992)</f>
@@ -6252,7 +6247,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B310">
         <f>(1992)</f>
@@ -6270,7 +6265,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B311">
         <f>(1992)</f>
@@ -6288,7 +6283,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B312">
         <f>(1992)</f>
@@ -6306,7 +6301,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B313">
         <f>(1992)</f>
@@ -6324,7 +6319,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B314">
         <f>(1992)</f>
@@ -6342,7 +6337,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B315">
         <f>(1992)</f>
@@ -6360,7 +6355,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B316">
         <f>(1992)</f>
@@ -6378,7 +6373,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B317">
         <f>(1992)</f>
@@ -6396,7 +6391,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B318">
         <f>(1992)</f>
@@ -6414,7 +6409,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B319">
         <f>(1992)</f>
@@ -6432,7 +6427,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B320">
         <f>(1992)</f>
@@ -6450,7 +6445,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B321">
         <f>(1992)</f>
@@ -6468,7 +6463,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B322">
         <f>(1992)</f>
@@ -6486,7 +6481,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B323">
         <f>(1992)</f>
@@ -6504,7 +6499,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B324">
         <f>(1992)</f>
@@ -6522,7 +6517,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B325">
         <f>(1992)</f>
@@ -6540,7 +6535,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B326">
         <f>(1992)</f>
@@ -6558,7 +6553,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B327">
         <f>(1992)</f>
@@ -6576,7 +6571,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B328">
         <f>(1992)</f>
@@ -6594,7 +6589,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B329">
         <f>(1992)</f>
@@ -6612,7 +6607,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B330">
         <f>(1992)</f>
@@ -6630,7 +6625,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B331">
         <f>(1992)</f>
@@ -6648,7 +6643,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B332">
         <f>(1992)</f>
@@ -6666,7 +6661,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B333">
         <f>(1992)</f>
@@ -6684,7 +6679,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B334">
         <f>(1992)</f>
@@ -6702,7 +6697,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B335">
         <f>(1992)</f>
@@ -6720,7 +6715,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B336">
         <f>(1992)</f>
@@ -6738,7 +6733,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B337">
         <f>(1992)</f>
@@ -6756,7 +6751,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B338">
         <f>(1992)</f>
@@ -6774,7 +6769,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B339">
         <f>(1992)</f>
@@ -6792,7 +6787,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B340">
         <f>(1992)</f>
@@ -6810,7 +6805,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B341">
         <f>(1992)</f>
@@ -6828,7 +6823,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B342">
         <f>(1992)</f>
@@ -6846,7 +6841,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B343">
         <f>(1992)</f>
@@ -6864,7 +6859,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B344">
         <f>(1992)</f>
@@ -6882,7 +6877,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B345">
         <f>(1992)</f>
@@ -6900,7 +6895,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B346">
         <f>(1992)</f>
@@ -6918,7 +6913,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B347">
         <f>(1992)</f>
@@ -6936,7 +6931,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B348">
         <f>(1992)</f>
@@ -6954,7 +6949,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B349">
         <f>(1992)</f>
@@ -6972,7 +6967,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B350">
         <f>(1992)</f>
@@ -6990,7 +6985,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B351">
         <f>(1992)</f>
@@ -7008,7 +7003,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B352">
         <f>(1992)</f>
@@ -7026,7 +7021,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B353">
         <f>(1992)</f>
@@ -7044,7 +7039,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B354">
         <f>(1992)</f>
@@ -7062,7 +7057,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B355">
         <f>(1992)</f>
@@ -7080,7 +7075,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B356">
         <f>(1992)</f>
@@ -7098,7 +7093,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B357">
         <f>(1992)</f>
@@ -7116,7 +7111,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B358">
         <f>(1992)</f>
@@ -7134,7 +7129,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B359">
         <f>(1992)</f>
@@ -7152,7 +7147,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B360">
         <f>(1988)</f>
@@ -7170,7 +7165,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B361">
         <f>(1988)</f>
@@ -7188,7 +7183,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B362">
         <f>(1988)</f>
@@ -7206,7 +7201,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B363">
         <f>(1988)</f>
@@ -7224,7 +7219,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B364">
         <f>(1988)</f>
@@ -7242,7 +7237,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B365">
         <f>(1988)</f>
@@ -7260,7 +7255,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B366">
         <f>(1988)</f>
@@ -7278,7 +7273,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B367">
         <f>(1988)</f>
@@ -7296,7 +7291,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B368">
         <f>(1988)</f>
@@ -7314,7 +7309,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B369">
         <f>(1988)</f>
@@ -7332,7 +7327,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B370">
         <f>(1988)</f>
@@ -7350,7 +7345,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B371">
         <f>(1988)</f>
@@ -7368,7 +7363,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B372">
         <f>(1988)</f>
@@ -7386,7 +7381,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B373">
         <f>(1988)</f>
@@ -7404,7 +7399,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B374">
         <f>(1988)</f>
@@ -7422,7 +7417,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B375">
         <f>(1988)</f>
@@ -7440,7 +7435,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B376">
         <f>(1988)</f>
@@ -7458,7 +7453,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B377">
         <f>(1988)</f>
@@ -7476,7 +7471,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B378">
         <f>(1988)</f>
@@ -7494,7 +7489,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B379">
         <f>(1988)</f>
@@ -7512,7 +7507,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B380">
         <f>(1988)</f>
@@ -7530,7 +7525,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B381">
         <f>(1988)</f>
@@ -7548,7 +7543,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B382">
         <f>(1988)</f>
@@ -7566,7 +7561,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B383">
         <f>(1988)</f>
@@ -7584,7 +7579,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B384">
         <f>(1988)</f>
@@ -7602,7 +7597,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B385">
         <f>(1988)</f>
@@ -7620,7 +7615,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B386">
         <f>(1988)</f>
@@ -7638,7 +7633,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B387">
         <f>(1988)</f>
@@ -7656,7 +7651,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B388">
         <f>(1988)</f>
@@ -7674,7 +7669,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B389">
         <f>(1988)</f>
@@ -7692,7 +7687,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B390">
         <f>(1988)</f>
@@ -7710,7 +7705,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B391">
         <f>(1988)</f>
@@ -7728,7 +7723,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B392">
         <f>(1988)</f>
@@ -7746,7 +7741,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B393">
         <f>(1988)</f>
@@ -7764,7 +7759,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B394">
         <f>(1988)</f>
@@ -7782,7 +7777,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B395">
         <f>(1988)</f>
@@ -7800,7 +7795,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B396">
         <f>(1988)</f>
@@ -7818,7 +7813,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B397">
         <f>(1988)</f>
@@ -7836,7 +7831,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B398">
         <f>(1988)</f>
@@ -7854,7 +7849,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B399">
         <f>(1988)</f>
@@ -7872,7 +7867,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B400">
         <f>(1988)</f>
@@ -7890,7 +7885,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B401">
         <f>(1988)</f>
@@ -7908,7 +7903,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B402">
         <f>(1988)</f>
@@ -7926,7 +7921,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B403">
         <f>(1988)</f>
@@ -7944,7 +7939,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B404">
         <f>(1988)</f>
@@ -7962,7 +7957,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B405">
         <f>(1988)</f>
@@ -7980,7 +7975,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B406">
         <f>(1988)</f>
@@ -7998,7 +7993,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B407">
         <f>(1988)</f>
@@ -8016,7 +8011,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B408">
         <f>(1988)</f>
@@ -8034,7 +8029,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B409">
         <f>(1988)</f>
@@ -8052,7 +8047,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B410">
         <f>(1988)</f>
@@ -8070,7 +8065,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B411">
         <f>(1984)</f>
@@ -8088,7 +8083,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B412">
         <f>(1984)</f>
@@ -8106,7 +8101,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B413">
         <f>(1984)</f>
@@ -8124,7 +8119,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B414">
         <f>(1984)</f>
@@ -8142,7 +8137,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B415">
         <f>(1984)</f>
@@ -8160,7 +8155,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B416">
         <f>(1984)</f>
@@ -8178,7 +8173,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B417">
         <f>(1984)</f>
@@ -8196,7 +8191,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B418">
         <f>(1984)</f>
@@ -8214,7 +8209,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B419">
         <f>(1984)</f>
@@ -8232,7 +8227,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B420">
         <f>(1984)</f>
@@ -8250,7 +8245,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B421">
         <f>(1984)</f>
@@ -8268,7 +8263,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B422">
         <f>(1984)</f>
@@ -8286,7 +8281,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B423">
         <f>(1984)</f>
@@ -8304,7 +8299,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B424">
         <f>(1984)</f>
@@ -8322,7 +8317,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B425">
         <f>(1984)</f>
@@ -8340,7 +8335,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B426">
         <f>(1984)</f>
@@ -8358,7 +8353,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B427">
         <f>(1984)</f>
@@ -8376,7 +8371,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B428">
         <f>(1984)</f>
@@ -8394,7 +8389,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B429">
         <f>(1984)</f>
@@ -8412,7 +8407,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B430">
         <f>(1984)</f>
@@ -8430,7 +8425,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B431">
         <f>(1984)</f>
@@ -8448,7 +8443,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B432">
         <f>(1984)</f>
@@ -8466,7 +8461,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B433">
         <f>(1984)</f>
@@ -8484,7 +8479,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B434">
         <f>(1984)</f>
@@ -8502,7 +8497,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B435">
         <f>(1984)</f>
@@ -8520,7 +8515,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B436">
         <f>(1984)</f>
@@ -8538,7 +8533,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B437">
         <f>(1984)</f>
@@ -8556,7 +8551,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B438">
         <f>(1984)</f>
@@ -8574,7 +8569,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B439">
         <f>(1984)</f>
@@ -8592,7 +8587,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B440">
         <f>(1984)</f>
@@ -8610,7 +8605,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B441">
         <f>(1984)</f>
@@ -8628,7 +8623,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B442">
         <f>(1984)</f>
@@ -8646,7 +8641,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B443">
         <f>(1984)</f>
@@ -8664,7 +8659,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B444">
         <f>(1984)</f>
@@ -8682,7 +8677,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B445">
         <f>(1984)</f>
@@ -8700,7 +8695,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B446">
         <f>(1984)</f>
@@ -8718,7 +8713,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B447">
         <f>(1984)</f>
@@ -8736,7 +8731,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B448">
         <f>(1984)</f>
@@ -8754,7 +8749,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B449">
         <f>(1984)</f>
@@ -8772,7 +8767,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B450">
         <f>(1984)</f>
@@ -8790,7 +8785,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B451">
         <f>(1984)</f>
@@ -8808,7 +8803,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B452">
         <f>(1984)</f>
@@ -8826,7 +8821,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B453">
         <f>(1984)</f>
@@ -8844,7 +8839,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B454">
         <f>(1984)</f>
@@ -8862,7 +8857,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B455">
         <f>(1984)</f>
@@ -8880,7 +8875,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B456">
         <f>(1984)</f>
@@ -8898,7 +8893,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B457">
         <f>(1984)</f>
@@ -8916,7 +8911,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B458">
         <f>(1984)</f>
@@ -8934,7 +8929,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B459">
         <f>(1984)</f>
@@ -8952,7 +8947,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B460">
         <f>(1984)</f>
@@ -8970,7 +8965,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B461">
         <f>(1984)</f>
@@ -8988,7 +8983,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B462">
         <f>(1980)</f>
@@ -9006,7 +9001,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B463">
         <f>(1980)</f>
@@ -9024,7 +9019,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B464">
         <f>(1980)</f>
@@ -9042,7 +9037,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B465">
         <f>(1980)</f>
@@ -9060,7 +9055,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B466">
         <f>(1980)</f>
@@ -9078,7 +9073,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B467">
         <f>(1980)</f>
@@ -9096,7 +9091,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B468">
         <f>(1980)</f>
@@ -9114,7 +9109,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B469">
         <f>(1980)</f>
@@ -9132,7 +9127,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B470">
         <f>(1980)</f>
@@ -9150,7 +9145,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B471">
         <f>(1980)</f>
@@ -9168,7 +9163,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B472">
         <f>(1980)</f>
@@ -9186,7 +9181,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B473">
         <f>(1980)</f>
@@ -9204,7 +9199,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B474">
         <f>(1980)</f>
@@ -9222,7 +9217,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B475">
         <f>(1980)</f>
@@ -9240,7 +9235,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B476">
         <f>(1980)</f>
@@ -9258,7 +9253,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B477">
         <f>(1980)</f>
@@ -9276,7 +9271,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B478">
         <f>(1980)</f>
@@ -9294,7 +9289,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B479">
         <f>(1980)</f>
@@ -9312,7 +9307,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B480">
         <f>(1980)</f>
@@ -9330,7 +9325,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B481">
         <f>(1980)</f>
@@ -9348,7 +9343,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B482">
         <f>(1980)</f>
@@ -9366,7 +9361,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B483">
         <f>(1980)</f>
@@ -9384,7 +9379,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B484">
         <f>(1980)</f>
@@ -9402,7 +9397,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B485">
         <f>(1980)</f>
@@ -9420,7 +9415,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B486">
         <f>(1980)</f>
@@ -9438,7 +9433,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B487">
         <f>(1980)</f>
@@ -9456,7 +9451,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B488">
         <f>(1980)</f>
@@ -9474,7 +9469,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B489">
         <f>(1980)</f>
@@ -9492,7 +9487,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B490">
         <f>(1980)</f>
@@ -9510,7 +9505,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B491">
         <f>(1980)</f>
@@ -9528,7 +9523,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B492">
         <f>(1980)</f>
@@ -9546,7 +9541,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B493">
         <f>(1980)</f>
@@ -9564,7 +9559,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B494">
         <f>(1980)</f>
@@ -9582,7 +9577,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B495">
         <f>(1980)</f>
@@ -9600,7 +9595,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B496">
         <f>(1980)</f>
@@ -9618,7 +9613,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B497">
         <f>(1980)</f>
@@ -9636,7 +9631,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B498">
         <f>(1980)</f>
@@ -9654,7 +9649,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B499">
         <f>(1980)</f>
@@ -9672,7 +9667,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B500">
         <f>(1980)</f>
@@ -9690,7 +9685,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B501">
         <f>(1980)</f>
@@ -9708,7 +9703,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B502">
         <f>(1980)</f>
@@ -9726,7 +9721,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B503">
         <f>(1980)</f>
@@ -9744,7 +9739,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B504">
         <f>(1980)</f>
@@ -9762,7 +9757,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B505">
         <f>(1980)</f>
@@ -9780,7 +9775,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B506">
         <f>(1980)</f>
@@ -9798,7 +9793,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B507">
         <f>(1980)</f>
@@ -9816,7 +9811,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B508">
         <f>(1980)</f>
@@ -9834,7 +9829,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B509">
         <f>(1980)</f>
@@ -9852,7 +9847,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B510">
         <f>(1980)</f>
@@ -9870,7 +9865,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B511">
         <f>(1980)</f>
@@ -9888,7 +9883,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B512">
         <f>(1980)</f>
@@ -9906,7 +9901,7 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B513">
         <f>(1976)</f>
@@ -9924,7 +9919,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B514">
         <f>(1976)</f>
@@ -9942,7 +9937,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B515">
         <f>(1976)</f>
@@ -9960,7 +9955,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B516">
         <f>(1976)</f>
@@ -9978,7 +9973,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B517">
         <f>(1976)</f>
@@ -9996,7 +9991,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B518">
         <f>(1976)</f>
@@ -10014,7 +10009,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B519">
         <f>(1976)</f>
@@ -10032,7 +10027,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B520">
         <f>(1976)</f>
@@ -10050,7 +10045,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B521">
         <f>(1976)</f>
@@ -10068,7 +10063,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B522">
         <f>(1976)</f>
@@ -10086,7 +10081,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B523">
         <f>(1976)</f>
@@ -10104,7 +10099,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B524">
         <f>(1976)</f>
@@ -10122,7 +10117,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B525">
         <f>(1976)</f>
@@ -10140,7 +10135,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B526">
         <f>(1976)</f>
@@ -10158,7 +10153,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B527">
         <f>(1976)</f>
@@ -10176,7 +10171,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B528">
         <f>(1976)</f>
@@ -10194,7 +10189,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B529">
         <f>(1976)</f>
@@ -10212,7 +10207,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B530">
         <f>(1976)</f>
@@ -10230,7 +10225,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B531">
         <f>(1976)</f>
@@ -10248,7 +10243,7 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B532">
         <f>(1976)</f>
@@ -10266,7 +10261,7 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B533">
         <f>(1976)</f>
@@ -10284,7 +10279,7 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B534">
         <f>(1976)</f>
@@ -10302,7 +10297,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B535">
         <f>(1976)</f>
@@ -10320,7 +10315,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B536">
         <f>(1976)</f>
@@ -10338,7 +10333,7 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B537">
         <f>(1976)</f>
@@ -10356,7 +10351,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B538">
         <f>(1976)</f>
@@ -10374,7 +10369,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B539">
         <f>(1976)</f>
@@ -10392,7 +10387,7 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B540">
         <f>(1976)</f>
@@ -10410,7 +10405,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B541">
         <f>(1976)</f>
@@ -10428,7 +10423,7 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B542">
         <f>(1976)</f>
@@ -10446,7 +10441,7 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B543">
         <f>(1976)</f>
@@ -10464,7 +10459,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B544">
         <f>(1976)</f>
@@ -10482,7 +10477,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B545">
         <f>(1976)</f>
@@ -10500,7 +10495,7 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B546">
         <f>(1976)</f>
@@ -10518,7 +10513,7 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B547">
         <f>(1976)</f>
@@ -10536,7 +10531,7 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B548">
         <f>(1976)</f>
@@ -10554,7 +10549,7 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B549">
         <f>(1976)</f>
@@ -10572,7 +10567,7 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B550">
         <f>(1976)</f>
@@ -10590,7 +10585,7 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B551">
         <f>(1976)</f>
@@ -10608,7 +10603,7 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B552">
         <f>(1976)</f>
@@ -10626,7 +10621,7 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B553">
         <f>(1976)</f>
@@ -10644,7 +10639,7 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B554">
         <f>(1976)</f>
@@ -10662,7 +10657,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B555">
         <f>(1976)</f>
@@ -10680,7 +10675,7 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B556">
         <f>(1976)</f>
@@ -10698,7 +10693,7 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B557">
         <f>(1976)</f>
@@ -10716,7 +10711,7 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B558">
         <f>(1976)</f>
@@ -10734,7 +10729,7 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B559">
         <f>(1976)</f>
@@ -10752,7 +10747,7 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B560">
         <f>(1976)</f>
@@ -10770,7 +10765,7 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B561">
         <f>(1976)</f>
@@ -10788,7 +10783,7 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B562">
         <f>(1976)</f>
@@ -10806,7 +10801,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B563">
         <f>(1976)</f>
